--- a/Game/Map/Stage1/Side.xlsx
+++ b/Game/Map/Stage1/Side.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waru5\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BDDB29-4FF1-40F1-AA9F-D696ED18EC42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="45" windowWidth="16320" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="45" windowWidth="16320" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +72,66 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -158,114 +216,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -544,11 +494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="EK1" sqref="A1:EK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,9 +506,10 @@
     <col min="1" max="5" width="4.875" customWidth="1"/>
     <col min="6" max="65" width="4.125" customWidth="1"/>
     <col min="66" max="76" width="4.75" customWidth="1"/>
+    <col min="77" max="141" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
@@ -787,8 +738,203 @@
       <c r="BX1">
         <v>0</v>
       </c>
+      <c r="BY1">
+        <v>0</v>
+      </c>
+      <c r="BZ1">
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <v>0</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <v>0</v>
+      </c>
+      <c r="CX1">
+        <v>0</v>
+      </c>
+      <c r="CY1">
+        <v>0</v>
+      </c>
+      <c r="CZ1">
+        <v>0</v>
+      </c>
+      <c r="DA1">
+        <v>0</v>
+      </c>
+      <c r="DB1">
+        <v>0</v>
+      </c>
+      <c r="DC1">
+        <v>0</v>
+      </c>
+      <c r="DD1">
+        <v>0</v>
+      </c>
+      <c r="DE1">
+        <v>0</v>
+      </c>
+      <c r="DF1">
+        <v>0</v>
+      </c>
+      <c r="DG1">
+        <v>0</v>
+      </c>
+      <c r="DH1">
+        <v>0</v>
+      </c>
+      <c r="DI1">
+        <v>0</v>
+      </c>
+      <c r="DJ1">
+        <v>0</v>
+      </c>
+      <c r="DK1">
+        <v>0</v>
+      </c>
+      <c r="DL1">
+        <v>0</v>
+      </c>
+      <c r="DM1">
+        <v>0</v>
+      </c>
+      <c r="DN1">
+        <v>0</v>
+      </c>
+      <c r="DO1">
+        <v>0</v>
+      </c>
+      <c r="DP1">
+        <v>0</v>
+      </c>
+      <c r="DQ1">
+        <v>0</v>
+      </c>
+      <c r="DR1">
+        <v>0</v>
+      </c>
+      <c r="DS1">
+        <v>0</v>
+      </c>
+      <c r="DT1">
+        <v>0</v>
+      </c>
+      <c r="DU1">
+        <v>0</v>
+      </c>
+      <c r="DV1">
+        <v>0</v>
+      </c>
+      <c r="DW1">
+        <v>0</v>
+      </c>
+      <c r="DX1">
+        <v>0</v>
+      </c>
+      <c r="DY1">
+        <v>0</v>
+      </c>
+      <c r="DZ1">
+        <v>0</v>
+      </c>
+      <c r="EA1">
+        <v>0</v>
+      </c>
+      <c r="EB1">
+        <v>0</v>
+      </c>
+      <c r="EC1">
+        <v>0</v>
+      </c>
+      <c r="ED1">
+        <v>0</v>
+      </c>
+      <c r="EE1">
+        <v>0</v>
+      </c>
+      <c r="EF1">
+        <v>0</v>
+      </c>
+      <c r="EG1">
+        <v>0</v>
+      </c>
+      <c r="EH1">
+        <v>0</v>
+      </c>
+      <c r="EI1">
+        <v>0</v>
+      </c>
+      <c r="EJ1">
+        <v>0</v>
+      </c>
+      <c r="EK1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1017,8 +1163,203 @@
       <c r="BX2">
         <v>0</v>
       </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>5</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>6</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>0</v>
+      </c>
+      <c r="EK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1247,8 +1588,203 @@
       <c r="BX3">
         <v>0</v>
       </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>1</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>1</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>0</v>
+      </c>
+      <c r="EK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1477,8 +2013,203 @@
       <c r="BX4">
         <v>0</v>
       </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>5</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1707,8 +2438,203 @@
       <c r="BX5">
         <v>0</v>
       </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>5</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>1</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1937,8 +2863,203 @@
       <c r="BX6">
         <v>0</v>
       </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>5</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>5</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>5</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>3</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>5</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>5</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>3</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>5</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>5</v>
+      </c>
+      <c r="DK6">
+        <v>3</v>
+      </c>
+      <c r="DL6">
+        <v>5</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>5</v>
+      </c>
+      <c r="DP6">
+        <v>5</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>1</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>5</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>1</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>0</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2167,8 +3288,203 @@
       <c r="BX7">
         <v>0</v>
       </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>1</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>1</v>
+      </c>
+      <c r="CR7">
+        <v>5</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>5</v>
+      </c>
+      <c r="CU7">
+        <v>1</v>
+      </c>
+      <c r="CV7">
+        <v>1</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>1</v>
+      </c>
+      <c r="CY7">
+        <v>5</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>5</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DC7">
+        <v>1</v>
+      </c>
+      <c r="DD7">
+        <v>1</v>
+      </c>
+      <c r="DE7">
+        <v>5</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>5</v>
+      </c>
+      <c r="DH7">
+        <v>1</v>
+      </c>
+      <c r="DI7">
+        <v>1</v>
+      </c>
+      <c r="DJ7">
+        <v>1</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>5</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>1</v>
+      </c>
+      <c r="DQ7">
+        <v>1</v>
+      </c>
+      <c r="DR7">
+        <v>1</v>
+      </c>
+      <c r="DS7">
+        <v>1</v>
+      </c>
+      <c r="DT7">
+        <v>1</v>
+      </c>
+      <c r="DU7">
+        <v>1</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7">
+        <v>1</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>1</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2397,8 +3713,203 @@
       <c r="BX8">
         <v>0</v>
       </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>1</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>1</v>
+      </c>
+      <c r="EH8">
+        <v>1</v>
+      </c>
+      <c r="EI8">
+        <v>1</v>
+      </c>
+      <c r="EJ8">
+        <v>1</v>
+      </c>
+      <c r="EK8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2627,8 +4138,203 @@
       <c r="BX9">
         <v>1</v>
       </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <v>1</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>1</v>
+      </c>
+      <c r="CD9">
+        <v>1</v>
+      </c>
+      <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
+        <v>1</v>
+      </c>
+      <c r="CG9">
+        <v>1</v>
+      </c>
+      <c r="CH9">
+        <v>1</v>
+      </c>
+      <c r="CI9">
+        <v>1</v>
+      </c>
+      <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
+        <v>1</v>
+      </c>
+      <c r="CL9">
+        <v>1</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>6</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>6</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>6</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>6</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>1</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>0</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2855,53 +4561,274 @@
         <v>0</v>
       </c>
       <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>1</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>1</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>1</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>1</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>0</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>1</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10">
+        <v>0</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BY1:BY10">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+  <conditionalFormatting sqref="CC1:CC10">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BX10">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:CB10 BY1:EK9 BX10:EK10">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BX10">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="A1:CB10 BY1:EK9 BX10:EK10">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BX10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:CB10 BY1:EK9 BX10:EK10">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV1:EK10">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Game/Map/Stage1/Side.xlsx
+++ b/Game/Map/Stage1/Side.xlsx
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -64,8 +73,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EK10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="EK1" sqref="A1:EK1"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="EH6" sqref="EH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
         <v>5</v>
       </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
       <c r="EE2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -1757,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="EC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF3">
         <v>0</v>
@@ -2945,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="CZ6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA6">
         <v>0</v>
@@ -2954,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="DC6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DD6">
         <v>5</v>
@@ -2963,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="DF6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DG6">
         <v>0</v>
@@ -3038,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF6">
         <v>0</v>
@@ -3124,25 +3136,25 @@
         <v>5</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z7">
         <v>5</v>
       </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
         <v>5</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
       </c>
       <c r="AC7">
         <v>5</v>
@@ -3433,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="DU7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV7">
         <v>0</v>
@@ -3861,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="DV8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="DW8">
         <v>0</v>
@@ -3974,25 +3986,25 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4286,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="DV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW9">
         <v>0</v>

--- a/Game/Map/Stage1/Side.xlsx
+++ b/Game/Map/Stage1/Side.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:EK10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="EH6" sqref="EH6"/>
+      <selection activeCell="EI6" sqref="EI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="EE8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EF8">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="EA9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EB9">
         <v>0</v>
